--- a/data/trans_orig/P1415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFF2A36-4C44-4322-ABD8-E784DD75FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F35147-CEEC-425C-9D64-2E67B18B8F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4BD6E9B-83B6-4D83-BEB4-7D2F6D87D5B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F453C1CA-24E7-4DBD-A598-4DC01B7E73D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="311">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -112,804 +112,807 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,73%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
@@ -932,12 +935,6 @@
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -1385,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949ED6ED-E62A-4625-9CDE-B513498EEABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B213E43-5A69-4602-BB82-BB73854014E7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1966,10 +1963,10 @@
         <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1981,10 +1978,10 @@
         <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,10 +1996,10 @@
         <v>323039</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -2014,13 +2011,13 @@
         <v>338005</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -2029,13 +2026,13 @@
         <v>661044</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2088,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2139,7 +2136,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2151,13 @@
         <v>15127</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2169,13 +2166,13 @@
         <v>10356</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2184,13 +2181,13 @@
         <v>25483</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2202,13 @@
         <v>653593</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -2220,13 +2217,13 @@
         <v>665840</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>1230</v>
@@ -2235,13 +2232,13 @@
         <v>1319433</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,7 +2294,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2315,37 +2312,37 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2357,13 @@
         <v>4187</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2375,13 +2372,13 @@
         <v>2944</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2390,13 +2387,13 @@
         <v>7131</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2408,13 @@
         <v>208431</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -2426,13 +2423,13 @@
         <v>216647</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -2441,13 +2438,13 @@
         <v>425078</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2500,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2521,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2536,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2551,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2563,13 @@
         <v>6090</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2581,13 +2578,13 @@
         <v>2990</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2596,13 +2593,13 @@
         <v>9080</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2614,13 @@
         <v>267891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2632,13 +2629,13 @@
         <v>275106</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>520</v>
@@ -2647,13 +2644,13 @@
         <v>542997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,7 +2706,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2757,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2769,13 @@
         <v>16761</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2787,13 +2784,13 @@
         <v>6368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2802,13 +2799,13 @@
         <v>23129</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2820,13 @@
         <v>646027</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>630</v>
@@ -2838,13 +2835,13 @@
         <v>687485</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="M30" s="7">
         <v>1233</v>
@@ -2853,13 +2850,13 @@
         <v>1333512</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2912,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2933,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2948,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2963,7 +2960,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2975,13 @@
         <v>9666</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2993,13 +2990,13 @@
         <v>4371</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3011,10 +3008,10 @@
         <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3026,13 @@
         <v>769432</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>752</v>
@@ -3044,13 +3041,13 @@
         <v>818207</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M34" s="7">
         <v>1461</v>
@@ -3059,13 +3056,13 @@
         <v>1587639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3136,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3154,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3169,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3181,13 @@
         <v>56970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7">
         <v>35</v>
@@ -3199,13 +3196,13 @@
         <v>37129</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -3217,10 +3214,10 @@
         <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3232,13 @@
         <v>3369809</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>3261</v>
@@ -3250,28 +3247,28 @@
         <v>3517969</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>6420</v>
       </c>
       <c r="N38" s="7">
-        <v>6887778</v>
+        <v>6887779</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3310,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>37</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73612E54-32C1-4D55-89A1-757D613BD226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EFEE86-088A-400D-8D86-16F01438A721}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3481,7 +3478,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3532,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3541,13 +3538,13 @@
         <v>8782</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3556,13 +3553,13 @@
         <v>10488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3577,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -3592,13 +3589,13 @@
         <v>279921</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="M6" s="7">
         <v>532</v>
@@ -3607,13 +3604,13 @@
         <v>571976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3729,13 @@
         <v>1152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3747,13 +3744,13 @@
         <v>4086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3762,13 +3759,13 @@
         <v>5238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,10 +3780,10 @@
         <v>501423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -3798,13 +3795,13 @@
         <v>518998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
@@ -3813,13 +3810,13 @@
         <v>1020421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3890,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3923,7 +3920,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3935,13 @@
         <v>4482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3953,13 +3950,13 @@
         <v>1984</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3968,13 +3965,13 @@
         <v>6466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3986,13 @@
         <v>314083</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -4004,10 +4001,10 @@
         <v>334325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4019,13 +4016,13 @@
         <v>648408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,7 +4078,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4099,7 +4096,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4114,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4129,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4141,13 @@
         <v>5306</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4159,13 +4156,13 @@
         <v>4298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4174,13 +4171,13 @@
         <v>9604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4192,13 @@
         <v>364658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>354</v>
@@ -4210,13 +4207,13 @@
         <v>382985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>703</v>
@@ -4225,13 +4222,13 @@
         <v>747643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4284,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4305,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4320,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4335,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4347,13 @@
         <v>888</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4365,13 +4362,13 @@
         <v>3872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -4380,13 +4377,13 @@
         <v>4760</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +4398,10 @@
         <v>210333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>30</v>
@@ -4416,13 +4413,13 @@
         <v>214715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>430</v>
@@ -4431,13 +4428,13 @@
         <v>425048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4490,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4511,7 +4508,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4526,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4541,7 +4538,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4571,13 +4568,13 @@
         <v>6237</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4586,13 +4583,13 @@
         <v>7029</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4604,10 @@
         <v>262330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -4622,13 +4619,13 @@
         <v>266878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -4637,13 +4634,13 @@
         <v>529209</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,7 +4696,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4717,7 +4714,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4747,7 +4744,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4759,13 @@
         <v>7854</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4777,13 +4774,13 @@
         <v>11449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4792,13 +4789,13 @@
         <v>19303</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,10 +4810,10 @@
         <v>648704</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>252</v>
@@ -4828,13 +4825,13 @@
         <v>679845</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -4843,13 +4840,13 @@
         <v>1328549</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4902,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4923,7 +4920,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4938,7 +4935,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4953,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4965,13 @@
         <v>13281</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -4983,13 +4980,13 @@
         <v>15735</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -4998,13 +4995,13 @@
         <v>29015</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5016,13 @@
         <v>765302</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="H34" s="7">
         <v>741</v>
@@ -5034,13 +5031,13 @@
         <v>810432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="M34" s="7">
         <v>1479</v>
@@ -5049,13 +5046,13 @@
         <v>1575735</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5126,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5144,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5159,7 +5156,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5171,13 @@
         <v>35461</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -5189,13 +5186,13 @@
         <v>56443</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -5204,13 +5201,13 @@
         <v>91903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5222,13 @@
         <v>3358889</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="H38" s="7">
         <v>3285</v>
@@ -5240,13 +5237,13 @@
         <v>3488099</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>6481</v>
@@ -5255,13 +5252,13 @@
         <v>6846989</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,7 +5314,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5341,7 +5338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A914ADF-2073-4ED4-9E28-618EB0CCD296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4052EF71-5954-43EA-B8CF-7FB521D8E9D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5358,7 +5355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5483,7 +5480,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
@@ -5498,7 +5495,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -5537,7 +5534,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5552,7 +5549,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,7 +5585,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5603,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,7 +5671,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>37</v>
@@ -5689,7 +5686,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>37</v>
@@ -5704,7 +5701,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>37</v>
@@ -5728,7 +5725,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5743,7 +5740,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5758,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5794,7 +5791,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5809,7 +5806,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,7 +5877,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
@@ -5895,7 +5892,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>37</v>
@@ -5910,7 +5907,7 @@
         <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>37</v>
@@ -5934,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5949,7 +5946,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5964,7 +5961,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +5982,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6000,7 +5997,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6015,7 +6012,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,7 +6068,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6086,7 +6083,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>37</v>
@@ -6101,7 +6098,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>37</v>
@@ -6116,7 +6113,7 @@
         <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>37</v>
@@ -6140,7 +6137,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6155,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6170,7 +6167,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,7 +6188,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6206,7 +6203,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6221,7 +6218,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6274,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6292,7 +6289,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -6307,7 +6304,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -6322,7 +6319,7 @@
         <v>30</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -6361,7 +6358,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6376,7 +6373,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6427,7 +6424,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,7 +6480,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6498,7 +6495,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>37</v>
@@ -6513,7 +6510,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>37</v>
@@ -6528,7 +6525,7 @@
         <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>37</v>
@@ -6552,7 +6549,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6567,7 +6564,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6582,7 +6579,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6600,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6618,7 +6615,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6633,7 +6630,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,7 +6686,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6704,7 +6701,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
@@ -6719,7 +6716,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>37</v>
@@ -6734,7 +6731,7 @@
         <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>37</v>
@@ -6758,7 +6755,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6788,7 +6785,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,7 +6806,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6839,7 +6836,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,7 +6892,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6910,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>37</v>
@@ -6925,7 +6922,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>37</v>
@@ -6940,7 +6937,7 @@
         <v>30</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>37</v>
@@ -6964,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6979,22 +6976,22 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +7012,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7030,22 +7027,22 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,7 +7113,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>37</v>
@@ -7131,7 +7128,7 @@
         <v>30</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>37</v>
@@ -7146,7 +7143,7 @@
         <v>30</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>37</v>
@@ -7170,7 +7167,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7185,22 +7182,22 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7218,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7236,22 +7233,22 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,7 +7304,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F35147-CEEC-425C-9D64-2E67B18B8F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F02AA806-B1EA-46E4-BC91-D09EEBD976C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F453C1CA-24E7-4DBD-A598-4DC01B7E73D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C20E0230-A022-45DF-AA34-815B48FB328F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="305">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,22%</t>
+    <t>2,91%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -112,832 +112,814 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -1382,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B213E43-5A69-4602-BB82-BB73854014E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD741A-EEAC-4807-8902-92B4971462D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,10 +1945,10 @@
         <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1978,10 +1960,10 @@
         <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,10 +1978,10 @@
         <v>323039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -2011,13 +1993,13 @@
         <v>338005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -2026,13 +2008,13 @@
         <v>661044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,7 +2070,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2136,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2133,13 @@
         <v>15127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2166,13 +2148,13 @@
         <v>10356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2181,13 +2163,13 @@
         <v>25483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2184,13 @@
         <v>653593</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -2217,13 +2199,13 @@
         <v>665840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>1230</v>
@@ -2232,13 +2214,13 @@
         <v>1319433</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2276,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2312,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2327,7 +2309,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2342,7 +2324,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2339,13 @@
         <v>4187</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2372,13 +2354,13 @@
         <v>2944</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2387,13 +2369,13 @@
         <v>7131</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2390,13 @@
         <v>208431</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -2423,13 +2405,13 @@
         <v>216647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -2438,13 +2420,13 @@
         <v>425078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2482,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2518,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2533,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2548,7 +2530,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2545,13 @@
         <v>6090</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2578,13 +2560,13 @@
         <v>2990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2593,13 +2575,13 @@
         <v>9080</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2596,13 @@
         <v>267891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2629,13 +2611,13 @@
         <v>275106</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>520</v>
@@ -2644,13 +2626,13 @@
         <v>542997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2688,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2754,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2751,13 @@
         <v>16761</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2784,13 +2766,13 @@
         <v>6368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2799,13 +2781,13 @@
         <v>23129</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2802,13 @@
         <v>646027</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>630</v>
@@ -2835,13 +2817,13 @@
         <v>687485</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M30" s="7">
         <v>1233</v>
@@ -2850,13 +2832,13 @@
         <v>1333512</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2894,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2930,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2945,7 +2927,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2960,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2957,13 @@
         <v>9666</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2990,13 +2972,13 @@
         <v>4371</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3008,10 +2990,10 @@
         <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3008,13 @@
         <v>769432</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H34" s="7">
         <v>752</v>
@@ -3041,13 +3023,13 @@
         <v>818207</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M34" s="7">
         <v>1461</v>
@@ -3056,13 +3038,13 @@
         <v>1587639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3151,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3166,7 +3148,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3163,13 @@
         <v>56970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H37" s="7">
         <v>35</v>
@@ -3196,13 +3178,13 @@
         <v>37129</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -3214,10 +3196,10 @@
         <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3214,13 @@
         <v>3369809</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H38" s="7">
         <v>3261</v>
@@ -3247,28 +3229,28 @@
         <v>3517969</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="M38" s="7">
         <v>6420</v>
       </c>
       <c r="N38" s="7">
-        <v>6887779</v>
+        <v>6887778</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,7 +3292,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>37</v>
@@ -3324,7 +3306,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EFEE86-088A-400D-8D86-16F01438A721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92967E9-EB92-4262-ACA7-9B9C5F4A752B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3478,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3493,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3508,7 +3490,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,7 +3511,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3538,13 +3520,13 @@
         <v>8782</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3553,13 +3535,13 @@
         <v>10488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -3589,13 +3571,13 @@
         <v>279921</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>532</v>
@@ -3604,13 +3586,13 @@
         <v>571976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3711,13 @@
         <v>1152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3744,13 +3726,13 @@
         <v>4086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3759,13 +3741,13 @@
         <v>5238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,10 +3762,10 @@
         <v>501423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -3795,13 +3777,13 @@
         <v>518998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
@@ -3810,13 +3792,13 @@
         <v>1020421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3872,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3920,7 +3902,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3917,13 @@
         <v>4482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3950,13 +3932,13 @@
         <v>1984</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3965,13 +3947,13 @@
         <v>6466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3968,13 @@
         <v>314083</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -4001,10 +3983,10 @@
         <v>334325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4016,13 +3998,13 @@
         <v>648408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4096,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4111,7 +4093,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4126,7 +4108,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4123,13 @@
         <v>5306</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4156,13 +4138,13 @@
         <v>4298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4171,13 +4153,13 @@
         <v>9604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4174,13 @@
         <v>364658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>354</v>
@@ -4207,13 +4189,13 @@
         <v>382985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>703</v>
@@ -4222,13 +4204,13 @@
         <v>747643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4266,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4302,7 +4284,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4317,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4332,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4329,13 @@
         <v>888</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4362,13 +4344,13 @@
         <v>3872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -4377,13 +4359,13 @@
         <v>4760</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,10 +4380,10 @@
         <v>210333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>30</v>
@@ -4413,13 +4395,13 @@
         <v>214715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>430</v>
@@ -4428,13 +4410,13 @@
         <v>425048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4472,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4508,7 +4490,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4523,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4538,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,7 +4541,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4568,13 +4550,13 @@
         <v>6237</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4583,13 +4565,13 @@
         <v>7029</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,10 +4586,10 @@
         <v>262330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -4619,13 +4601,13 @@
         <v>266878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -4634,13 +4616,13 @@
         <v>529209</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4678,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4714,7 +4696,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4744,7 +4726,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4741,13 @@
         <v>7854</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4774,13 +4756,13 @@
         <v>11449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4789,10 +4771,10 @@
         <v>19303</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>250</v>
@@ -4810,10 +4792,10 @@
         <v>648704</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>252</v>
@@ -4825,13 +4807,13 @@
         <v>679845</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -4840,13 +4822,13 @@
         <v>1328549</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,7 +4884,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4920,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4935,7 +4917,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4950,7 +4932,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4947,13 @@
         <v>13281</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -4980,13 +4962,13 @@
         <v>15735</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -4995,13 +4977,13 @@
         <v>29015</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4998,13 @@
         <v>765302</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
         <v>741</v>
@@ -5031,13 +5013,13 @@
         <v>810432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="M34" s="7">
         <v>1479</v>
@@ -5046,13 +5028,13 @@
         <v>1575735</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5141,7 +5123,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5156,7 +5138,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5153,13 @@
         <v>35461</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -5186,13 +5168,13 @@
         <v>56443</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -5201,13 +5183,13 @@
         <v>91903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5204,13 @@
         <v>3358889</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="H38" s="7">
         <v>3285</v>
@@ -5237,13 +5219,13 @@
         <v>3488099</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="M38" s="7">
         <v>6481</v>
@@ -5252,13 +5234,13 @@
         <v>6846989</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,7 +5296,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4052EF71-5954-43EA-B8CF-7FB521D8E9D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF120614-8B87-45F1-BDBB-B9BB4865FBEC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5355,7 +5337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5480,7 +5462,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
@@ -5495,7 +5477,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -5534,7 +5516,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5549,7 +5531,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5567,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5600,7 +5582,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +5653,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>37</v>
@@ -5686,7 +5668,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>37</v>
@@ -5701,7 +5683,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>37</v>
@@ -5725,7 +5707,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5740,7 +5722,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5755,7 +5737,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5758,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5791,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5806,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,7 +5859,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
@@ -5892,7 +5874,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>37</v>
@@ -5907,7 +5889,7 @@
         <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>37</v>
@@ -5931,7 +5913,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5946,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5961,7 +5943,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5997,7 +5979,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6012,7 +5994,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6050,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6083,7 +6065,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>37</v>
@@ -6098,7 +6080,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>37</v>
@@ -6113,7 +6095,7 @@
         <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>37</v>
@@ -6137,7 +6119,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6152,7 +6134,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6167,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,7 +6170,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6203,7 +6185,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6218,7 +6200,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6256,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6289,7 +6271,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -6304,7 +6286,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -6319,7 +6301,7 @@
         <v>30</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -6343,7 +6325,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6358,7 +6340,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6373,7 +6355,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,7 +6376,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6409,7 +6391,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6424,7 +6406,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +6462,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6495,7 +6477,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>37</v>
@@ -6510,7 +6492,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>37</v>
@@ -6525,7 +6507,7 @@
         <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>37</v>
@@ -6549,7 +6531,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6564,7 +6546,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6579,7 +6561,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +6582,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6615,7 +6597,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6630,7 +6612,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,7 +6668,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6701,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
@@ -6716,7 +6698,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>37</v>
@@ -6731,7 +6713,7 @@
         <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>37</v>
@@ -6755,7 +6737,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6785,7 +6767,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,7 +6788,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6836,7 +6818,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,7 +6874,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6907,7 +6889,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>37</v>
@@ -6922,7 +6904,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>37</v>
@@ -6937,7 +6919,7 @@
         <v>30</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>37</v>
@@ -6961,7 +6943,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6976,7 +6958,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6991,7 +6973,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,7 +6994,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7027,7 +7009,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7042,7 +7024,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,7 +7095,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>37</v>
@@ -7128,7 +7110,7 @@
         <v>30</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>37</v>
@@ -7137,13 +7119,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>37</v>
@@ -7167,7 +7149,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7182,7 +7164,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7197,7 +7179,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7200,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7233,7 +7215,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7248,7 +7230,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7272,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>37</v>
@@ -7304,7 +7286,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5BB9BB-843F-47B6-AE69-61AEEE125F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60B72AC-7363-4EA0-961E-2AB914D1CCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08ADDE63-B209-4BED-A458-94BA26FC0286}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B5A29B38-01B7-495A-97B4-AC2E0C229526}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="276">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -72,12 +72,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -135,9 +189,6 @@
     <t>99,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -192,573 +243,561 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>99,43%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,16%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>1,9%</t>
   </si>
   <si>
@@ -772,12 +811,6 @@
   </si>
   <si>
     <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
   </si>
   <si>
     <t>99,07%</t>
@@ -1243,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880101E-8446-4854-88B1-E7B57F7D80E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A486BA-6983-4647-8263-678221EC241B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1361,88 +1394,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8718</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4860</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13579</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="D5" s="7">
+        <v>286020</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I5" s="7">
+        <v>282385</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>526</v>
+      </c>
+      <c r="N5" s="7">
+        <v>568404</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,48 +1496,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1504,13 +1555,13 @@
         <v>4131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1519,13 +1570,13 @@
         <v>7085</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -1534,19 +1585,19 @@
         <v>11217</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -1555,13 +1606,13 @@
         <v>501396</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -1570,13 +1621,13 @@
         <v>516680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -1585,13 +1636,13 @@
         <v>1018075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,13 +1657,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1621,13 +1672,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1636,18 +1687,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1659,13 +1710,13 @@
         <v>1007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1674,13 +1725,13 @@
         <v>3015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1689,19 +1740,19 @@
         <v>4022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1710,13 +1761,13 @@
         <v>323039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -1725,13 +1776,13 @@
         <v>338005</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -1740,13 +1791,13 @@
         <v>661044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1812,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1776,13 +1827,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1791,117 +1842,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>15127</v>
+        <v>6409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>10356</v>
+        <v>5495</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>25483</v>
+        <v>11905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>612</v>
+        <v>338</v>
       </c>
       <c r="D14" s="7">
-        <v>653593</v>
+        <v>367573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>618</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>665840</v>
+        <v>383456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>1230</v>
+        <v>704</v>
       </c>
       <c r="N14" s="7">
-        <v>1319433</v>
+        <v>751028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,54 +1961,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1969,13 +2020,13 @@
         <v>4187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1984,13 +2035,13 @@
         <v>2944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1999,19 +2050,19 @@
         <v>7131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>192</v>
@@ -2020,13 +2071,13 @@
         <v>208431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -2035,13 +2086,13 @@
         <v>216647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2050,13 +2101,13 @@
         <v>425078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2122,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2086,13 +2137,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2101,18 +2152,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2124,13 +2175,13 @@
         <v>6090</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2139,13 +2190,13 @@
         <v>2990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2154,19 +2205,19 @@
         <v>9080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>255</v>
@@ -2175,13 +2226,13 @@
         <v>267891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2190,13 +2241,13 @@
         <v>275106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -2205,13 +2256,13 @@
         <v>542997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2277,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2241,13 +2292,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2256,18 +2307,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2330,13 @@
         <v>16761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2294,13 +2345,13 @@
         <v>6368</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2309,19 +2360,19 @@
         <v>23129</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>603</v>
@@ -2330,13 +2381,13 @@
         <v>646027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -2345,13 +2396,13 @@
         <v>687485</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1233</v>
@@ -2360,13 +2411,13 @@
         <v>1333512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2432,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2396,13 +2447,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2411,18 +2462,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2434,13 +2485,13 @@
         <v>9666</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2449,13 +2500,13 @@
         <v>4371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2464,19 +2515,19 @@
         <v>14037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>709</v>
@@ -2485,13 +2536,13 @@
         <v>769432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -2500,13 +2551,13 @@
         <v>818207</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1461</v>
@@ -2515,13 +2566,13 @@
         <v>1587639</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2587,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2551,13 +2602,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -2566,13 +2617,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2640,13 @@
         <v>56970</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -2604,13 +2655,13 @@
         <v>37129</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -2619,19 +2670,19 @@
         <v>94099</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3159</v>
@@ -2640,13 +2691,13 @@
         <v>3369809</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3261</v>
@@ -2655,13 +2706,13 @@
         <v>3517969</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>6420</v>
@@ -2670,13 +2721,13 @@
         <v>6887778</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2742,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -2706,13 +2757,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -2721,18 +2772,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA5F28A-C710-4F19-8641-C4BD533D2865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B28CDA-8ADD-4116-9264-DBDC3BA5FE3C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2773,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2880,13 +2931,13 @@
         <v>1706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2895,13 +2946,13 @@
         <v>8782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2910,19 +2961,19 @@
         <v>10488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>264</v>
@@ -2931,13 +2982,13 @@
         <v>292055</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
         <v>268</v>
@@ -2946,13 +2997,13 @@
         <v>279921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -2961,13 +3012,13 @@
         <v>571976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3033,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2997,13 +3048,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3012,18 +3063,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3035,13 +3086,13 @@
         <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3050,13 +3101,13 @@
         <v>4086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3065,19 +3116,19 @@
         <v>5238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>474</v>
@@ -3086,13 +3137,13 @@
         <v>501423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3101,13 +3152,13 @@
         <v>518998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>954</v>
@@ -3116,13 +3167,13 @@
         <v>1020421</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3188,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3152,13 +3203,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3167,18 +3218,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3190,13 +3241,13 @@
         <v>4482</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3205,13 +3256,13 @@
         <v>1984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3220,19 +3271,19 @@
         <v>6466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>330</v>
@@ -3241,13 +3292,13 @@
         <v>314083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>330</v>
@@ -3256,13 +3307,13 @@
         <v>334325</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3271,13 +3322,13 @@
         <v>648408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3343,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3307,13 +3358,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3322,18 +3373,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3396,13 @@
         <v>5306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3360,13 +3411,13 @@
         <v>4298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3375,19 +3426,19 @@
         <v>9604</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>349</v>
@@ -3396,13 +3447,13 @@
         <v>364658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -3411,13 +3462,13 @@
         <v>382985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3426,13 +3477,13 @@
         <v>747643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3498,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3462,13 +3513,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3477,18 +3528,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3500,13 +3551,13 @@
         <v>888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3515,13 +3566,13 @@
         <v>3872</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3530,19 +3581,19 @@
         <v>4760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>211</v>
@@ -3551,13 +3602,13 @@
         <v>210333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3566,13 +3617,13 @@
         <v>214715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>430</v>
@@ -3581,13 +3632,13 @@
         <v>425048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3653,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3617,13 +3668,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3632,18 +3683,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3655,13 +3706,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3670,13 +3721,13 @@
         <v>6237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3685,19 +3736,19 @@
         <v>7029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>258</v>
@@ -3706,13 +3757,13 @@
         <v>262330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -3721,13 +3772,13 @@
         <v>266878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -3736,13 +3787,13 @@
         <v>529209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3808,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3772,13 +3823,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3787,18 +3838,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3810,13 +3861,13 @@
         <v>7854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3825,13 +3876,13 @@
         <v>11449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -3840,19 +3891,19 @@
         <v>19303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>572</v>
@@ -3861,13 +3912,13 @@
         <v>648704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>636</v>
@@ -3876,13 +3927,13 @@
         <v>679845</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>1208</v>
@@ -3891,13 +3942,13 @@
         <v>1328549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3963,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3927,13 +3978,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3942,18 +3993,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3965,13 +4016,13 @@
         <v>13281</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3980,13 +4031,13 @@
         <v>15735</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -3995,19 +4046,19 @@
         <v>29015</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>738</v>
@@ -4016,13 +4067,13 @@
         <v>765302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>741</v>
@@ -4031,13 +4082,13 @@
         <v>810432</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>1479</v>
@@ -4046,13 +4097,13 @@
         <v>1575735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4118,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4082,13 +4133,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4097,13 +4148,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4171,13 @@
         <v>35461</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4135,13 +4186,13 @@
         <v>56443</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M28" s="7">
         <v>88</v>
@@ -4150,19 +4201,19 @@
         <v>91903</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3196</v>
@@ -4171,13 +4222,13 @@
         <v>3358889</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H29" s="7">
         <v>3285</v>
@@ -4186,13 +4237,13 @@
         <v>3488099</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M29" s="7">
         <v>6481</v>
@@ -4201,13 +4252,13 @@
         <v>6846989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4273,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4237,13 +4288,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4252,18 +4303,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
